--- a/LiftDragMoment_Coeff.xlsx
+++ b/LiftDragMoment_Coeff.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8466EDE6-4B87-442B-95F5-F982A627E504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C9B14-F51A-4167-B5B0-D0CE44786D9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LiftDragMoment_Coeff.xlsx
+++ b/LiftDragMoment_Coeff.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C9B14-F51A-4167-B5B0-D0CE44786D9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D6638E-B7F2-40FF-9A54-E7C73EC68A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Wing Coefficient of Lift at 0AoA</t>
   </si>
@@ -181,12 +189,81 @@
       <t>(rad?)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oswald efficiency factor - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(this is an estimation)</t>
+    </r>
+  </si>
+  <si>
+    <t>Center of gravity of wing</t>
+  </si>
+  <si>
+    <t>CG_w</t>
+  </si>
+  <si>
+    <t>Center of gravity of tail</t>
+  </si>
+  <si>
+    <t>CG_t</t>
+  </si>
+  <si>
+    <t>&lt;- PLACEHOLDER</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elevator effectiveness ration - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(this is an estimation)</t>
+    </r>
+  </si>
+  <si>
+    <t>T_e</t>
+  </si>
+  <si>
+    <t>e_w</t>
+  </si>
+  <si>
+    <t>Oswald efficiency factor - (this is an estimation)</t>
+  </si>
+  <si>
+    <t>e_t</t>
+  </si>
+  <si>
+    <t>Tail span</t>
+  </si>
+  <si>
+    <t>b_t</t>
+  </si>
+  <si>
+    <t>Tail chord</t>
+  </si>
+  <si>
+    <t>c_t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +274,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,19 +588,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.40625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +611,7 @@
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -539,7 +623,7 @@
         <v>0.1604409</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -550,7 +634,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -561,7 +645,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -572,7 +656,7 @@
         <v>9.69E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -583,7 +667,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -594,7 +678,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -605,7 +689,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -616,7 +700,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -627,7 +711,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -638,7 +722,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -649,7 +733,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -660,7 +744,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -671,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -682,7 +766,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -693,7 +777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -702,6 +786,98 @@
       </c>
       <c r="C17">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>0.8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>0.83299999999999996</v>
       </c>
     </row>
   </sheetData>
